--- a/Becoming the greatest UFT experts/Exercise 1/Default.xlsx
+++ b/Becoming the greatest UFT experts/Exercise 1/Default.xlsx
@@ -4,19 +4,48 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Logout" sheetId="3" r:id="rId3"/>
+    <sheet name="Booking" sheetId="4" r:id="rId4"/>
+    <sheet name="UpdateBooking" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+  <si>
+    <t>Oliver Felis</t>
+  </si>
+  <si>
+    <t>Does not Exist</t>
+  </si>
+  <si>
+    <t>TicketPrice</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>NrOfTickets</t>
+  </si>
+  <si>
+    <t>10498 AF</t>
+  </si>
+  <si>
+    <t>BookingNumber</t>
+  </si>
   <si>
     <t>mercury</t>
   </si>
@@ -24,31 +53,133 @@
     <t>Microfocus</t>
   </si>
   <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
+    <t>PassengerName</t>
+  </si>
+  <si>
     <t>Login not ok</t>
   </si>
   <si>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>Riccardo Sanna</t>
+  </si>
+  <si>
     <t>Jerry</t>
   </si>
   <si>
     <t>Expected</t>
   </si>
   <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>12539 DL</t>
+  </si>
+  <si>
+    <t>Jerry Saelemakers</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
     <t>HP</t>
   </si>
   <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>12558 AF</t>
+  </si>
+  <si>
+    <t>Karsten Bennewitz</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
     <t>Paul</t>
   </si>
   <si>
+    <t>BookedFlightReference</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
+    <t>13520 SR</t>
+  </si>
+  <si>
+    <t>17297 LH</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
     <t>Login OK</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Hichem Elwerghi</t>
+  </si>
+  <si>
+    <t>247uh76</t>
+  </si>
+  <si>
+    <t>Not a Number</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>jerry</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>2200 DL</t>
+  </si>
+  <si>
+    <t>Negative Number</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Andre Beuth</t>
   </si>
 </sst>
 </file>
@@ -229,15 +360,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -542,55 +679,55 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="2" width="9.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1">
+    <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -599,6 +736,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -608,30 +807,337 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.41796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.41796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.67578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.59765625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44992</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5">
+        <v>118.47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44989</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5">
+        <v>331.39999999999998</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44994</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5">
+        <v>485.39999999999998</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44992</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2016.5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45153</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5">
+        <v>117.2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45154</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1076.8199999999999</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="1" width="14.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.31640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>247</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3">
+        <v>504.19999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>-56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>444446</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>246</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <v>165.69999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>